--- a/resources/web-data.xlsx
+++ b/resources/web-data.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5088" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5088"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>USERNAME</t>
   </si>
@@ -43,36 +42,6 @@
   </si>
   <si>
     <t>test3@gmail.com</t>
-  </si>
-  <si>
-    <t>test4@gmail.com</t>
-  </si>
-  <si>
-    <t>test5@gmail.com</t>
-  </si>
-  <si>
-    <t>test6@gmail.com</t>
-  </si>
-  <si>
-    <t>test7@gmail.com</t>
-  </si>
-  <si>
-    <t>test8@gmail.com</t>
-  </si>
-  <si>
-    <t>test9@gmail.com</t>
-  </si>
-  <si>
-    <t>test10@gmail.com</t>
-  </si>
-  <si>
-    <t>test11@gmail.com</t>
-  </si>
-  <si>
-    <t>raghava2706@gmail.com</t>
-  </si>
-  <si>
-    <t>training</t>
   </si>
 </sst>
 </file>
@@ -401,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,122 +414,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3:A12" r:id="rId2" display="test1@gmail.com"/>
+    <hyperlink ref="A3:A4" r:id="rId2" display="test1@gmail.com"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="A10" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="A12" r:id="rId12"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/web-data.xlsx
+++ b/resources/web-data.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5088"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5088" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="user" sheetId="2" r:id="rId2"/>
+    <sheet name="ppt" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>USERNAME</t>
   </si>
@@ -42,6 +44,24 @@
   </si>
   <si>
     <t>test3@gmail.com</t>
+  </si>
+  <si>
+    <t>raghava2706@gmail.com</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>PPT-NAME</t>
+  </si>
+  <si>
+    <t>PPT-PWD</t>
+  </si>
+  <si>
+    <t>whiteboxqa</t>
+  </si>
+  <si>
+    <t>SDLC - General</t>
   </si>
 </sst>
 </file>
@@ -372,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,4 +443,89 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/web-data.xlsx
+++ b/resources/web-data.xlsx
@@ -13,8 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="user" sheetId="2" r:id="rId2"/>
-    <sheet name="ppt" sheetId="4" r:id="rId3"/>
+    <sheet name="ppt" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>USERNAME</t>
   </si>
@@ -46,12 +45,6 @@
     <t>test3@gmail.com</t>
   </si>
   <si>
-    <t>raghava2706@gmail.com</t>
-  </si>
-  <si>
-    <t>training</t>
-  </si>
-  <si>
     <t>PPT-NAME</t>
   </si>
   <si>
@@ -62,6 +55,9 @@
   </si>
   <si>
     <t>SDLC - General</t>
+  </si>
+  <si>
+    <t>test123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -447,49 +443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" activeCellId="1" sqref="B2 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,24 +459,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/resources/web-data.xlsx
+++ b/resources/web-data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pavi\ideaProj\WBLTestAutomation\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alok\Downloads\pavi\WBLTestAutomation-master\WBLTestAutomation-master\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5088" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="ppt" sheetId="4" r:id="rId2"/>
+    <sheet name="recordings" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>USERNAME</t>
   </si>
@@ -58,6 +59,24 @@
   </si>
   <si>
     <t>test123@gmail.com</t>
+  </si>
+  <si>
+    <t>raghava2706@gmail.com</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>2015-09</t>
+  </si>
+  <si>
+    <t>QA_2015-10-02_Reena_SQL Class(Sets,DML)</t>
+  </si>
+  <si>
+    <t>BATCH</t>
+  </si>
+  <si>
+    <t>RECORDING</t>
   </si>
 </sst>
 </file>
@@ -392,13 +411,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -414,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -422,7 +441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -445,13 +464,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" activeCellId="1" sqref="B2 E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -477,6 +496,52 @@
       </c>
       <c r="D2" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/resources/web-data.xlsx
+++ b/resources/web-data.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alok\Downloads\pavi\WBLTestAutomation-master\WBLTestAutomation-master\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="ppt" sheetId="4" r:id="rId2"/>
     <sheet name="recordings" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>USERNAME</t>
   </si>
@@ -58,15 +53,6 @@
     <t>SDLC - General</t>
   </si>
   <si>
-    <t>test123@gmail.com</t>
-  </si>
-  <si>
-    <t>raghava2706@gmail.com</t>
-  </si>
-  <si>
-    <t>training</t>
-  </si>
-  <si>
     <t>2015-09</t>
   </si>
   <si>
@@ -77,6 +63,9 @@
   </si>
   <si>
     <t>RECORDING</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
   </si>
 </sst>
 </file>
@@ -185,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,7 +209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,7 +386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -407,14 +396,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="33.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -465,10 +454,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -486,7 +475,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -510,13 +499,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,24 +513,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
